--- a/Python/data/case-study/SC-network/locations.xlsx
+++ b/Python/data/case-study/SC-network/locations.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongjis\Documents\GitHub\msp_models_for_adaptive_disaster_relief_logistics_planning\Python\data\case-study\SC-network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5B331F-55A3-4031-B345-100A0E415498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="1540" windowWidth="20720" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,19 +41,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{705173A1-08C4-44CA-B644-A48260B76A02}">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -63,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{07EAD3D0-6CE2-47B9-9330-08A7E18FC244}">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -83,14 +86,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{27FAC277-0B36-4CE1-BD14-43CB73C7C0DF}">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -103,14 +105,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{411E1CDD-4A1B-4C4C-BD0A-EE91CDCEB3FB}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Same as largest shelter in each state</t>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Index</t>
   </si>
@@ -270,11 +271,14 @@
   <si>
     <t>250 Jaguar Trail, Ridgeland, SC 29936</t>
   </si>
+  <si>
+    <t>Demand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,11 +318,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -327,14 +331,14 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -346,18 +350,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,26 +606,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4F54E1-5668-462B-90A4-B619B75EF85D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.265625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
-    <col min="5" max="5" width="52.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="13" width="9.1328125" customWidth="1"/>
+    <col min="8" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -643,14 +647,16 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -676,7 +682,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -703,7 +709,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -730,7 +736,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -757,7 +763,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -784,7 +790,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -811,7 +817,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -865,7 +871,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -892,7 +898,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -914,14 +920,17 @@
       <c r="G11" s="5">
         <v>33.462943000000003</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <f>63404*0.2</f>
+        <v>12680.800000000001</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -943,14 +952,17 @@
       <c r="G12" s="1">
         <v>34.043622999999997</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <f>351029*0.2</f>
+        <v>70205.8</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -972,14 +984,17 @@
       <c r="G13" s="1">
         <v>33.100476</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <f>229861*0.2</f>
+        <v>45972.200000000004</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1001,14 +1016,17 @@
       <c r="G14" s="1">
         <v>32.925263000000001</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f>403176*0.2</f>
+        <v>80635.200000000012</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1030,14 +1048,17 @@
       <c r="G15" s="1">
         <v>32.922212000000002</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f>157283*0.2</f>
+        <v>31456.600000000002</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -1059,14 +1080,17 @@
       <c r="G16" s="1">
         <v>32.951566999999997</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <f>38408*0.2</f>
+        <v>7681.6</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -1088,14 +1112,17 @@
       <c r="G17" s="8">
         <v>32.499321999999999</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <f>30101*0.2</f>
+        <v>6020.2000000000007</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3"/>
@@ -1109,7 +1136,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
@@ -1123,7 +1150,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
@@ -1137,7 +1164,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
@@ -1151,7 +1178,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
@@ -1165,7 +1192,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1174,7 +1201,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1183,7 +1210,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1192,7 +1219,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1201,7 +1228,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1210,7 +1237,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1219,7 +1246,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1227,7 +1254,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1235,7 +1262,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1243,7 +1270,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1251,7 +1278,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1259,7 +1286,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1267,7 +1294,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1275,7 +1302,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1283,7 +1310,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1291,7 +1318,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1305,7 +1332,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1319,7 +1346,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1333,7 +1360,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1347,7 +1374,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1361,7 +1388,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1375,7 +1402,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1389,7 +1416,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1403,7 +1430,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1417,7 +1444,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1431,7 +1458,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1445,7 +1472,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1459,7 +1486,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1473,7 +1500,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1487,7 +1514,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1501,7 +1528,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1515,7 +1542,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1529,7 +1556,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1543,7 +1570,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1557,7 +1584,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1571,7 +1598,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1585,7 +1612,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1599,7 +1626,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1613,7 +1640,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1627,7 +1654,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1641,7 +1668,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1655,7 +1682,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1669,7 +1696,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1683,7 +1710,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1697,7 +1724,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1711,7 +1738,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1725,7 +1752,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1739,7 +1766,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1753,7 +1780,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1767,7 +1794,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1781,7 +1808,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1795,7 +1822,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1809,7 +1836,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1823,7 +1850,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1837,7 +1864,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1851,7 +1878,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1865,7 +1892,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1879,7 +1906,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1893,7 +1920,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1907,7 +1934,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1921,7 +1948,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1935,7 +1962,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1949,7 +1976,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1963,7 +1990,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1977,7 +2004,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1991,7 +2018,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2005,7 +2032,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2019,7 +2046,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2033,7 +2060,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2047,7 +2074,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2061,7 +2088,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2075,7 +2102,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2089,7 +2116,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2103,7 +2130,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2117,7 +2144,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2131,7 +2158,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2145,7 +2172,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2159,7 +2186,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2173,7 +2200,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2187,7 +2214,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2201,7 +2228,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2215,7 +2242,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2229,7 +2256,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2243,7 +2270,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2257,7 +2284,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2271,7 +2298,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2285,7 +2312,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2299,7 +2326,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2313,7 +2340,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2327,7 +2354,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2341,7 +2368,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2355,7 +2382,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2369,7 +2396,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2383,7 +2410,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2397,7 +2424,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2411,7 +2438,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2425,7 +2452,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2439,7 +2466,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2453,7 +2480,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2467,7 +2494,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2481,7 +2508,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2495,7 +2522,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2509,7 +2536,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2523,7 +2550,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2537,7 +2564,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -2551,7 +2578,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2565,7 +2592,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2579,7 +2606,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2593,7 +2620,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2607,7 +2634,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2621,7 +2648,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -2635,7 +2662,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2649,7 +2676,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -2663,7 +2690,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2677,7 +2704,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -2691,7 +2718,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -2705,7 +2732,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -2719,7 +2746,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -2733,7 +2760,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -2747,7 +2774,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -2761,7 +2788,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -2775,7 +2802,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -2789,7 +2816,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -2803,7 +2830,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -2817,7 +2844,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -2831,7 +2858,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -2845,7 +2872,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -2859,7 +2886,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -2873,7 +2900,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -2887,7 +2914,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -2901,7 +2928,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -2915,7 +2942,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -2929,7 +2956,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -2943,7 +2970,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -2957,7 +2984,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -2971,7 +2998,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -2985,7 +3012,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -2999,7 +3026,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3013,7 +3040,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3027,7 +3054,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3041,7 +3068,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3055,7 +3082,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3069,7 +3096,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3083,7 +3110,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3097,7 +3124,7 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3111,7 +3138,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3125,7 +3152,7 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3139,7 +3166,7 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3153,7 +3180,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3167,7 +3194,7 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3181,7 +3208,7 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3195,7 +3222,7 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3209,7 +3236,7 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3223,7 +3250,7 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3237,7 +3264,7 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3251,7 +3278,7 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3265,7 +3292,7 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3279,7 +3306,7 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3293,7 +3320,7 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3307,7 +3334,7 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3321,7 +3348,7 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3335,7 +3362,7 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -3349,7 +3376,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3363,7 +3390,7 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3377,7 +3404,7 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -3391,7 +3418,7 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -3405,7 +3432,7 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -3419,7 +3446,7 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -3433,7 +3460,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3447,7 +3474,7 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3461,7 +3488,7 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3475,7 +3502,7 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3489,7 +3516,7 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3503,7 +3530,7 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
     </row>
-    <row r="196" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3517,7 +3544,7 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
     </row>
-    <row r="197" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3531,7 +3558,7 @@
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
     </row>
-    <row r="198" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3545,7 +3572,7 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3559,7 +3586,7 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3573,7 +3600,7 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
     </row>
-    <row r="201" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -3587,7 +3614,7 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
     </row>
-    <row r="202" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -3601,7 +3628,7 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3615,7 +3642,7 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -3629,7 +3656,7 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -3643,7 +3670,7 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
     </row>
-    <row r="206" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -3657,7 +3684,7 @@
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
     </row>
-    <row r="207" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -3671,7 +3698,7 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
     </row>
-    <row r="208" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -3685,7 +3712,7 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
     </row>
-    <row r="209" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -3699,7 +3726,7 @@
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
     </row>
-    <row r="210" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -3713,7 +3740,7 @@
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
     </row>
-    <row r="211" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -3727,7 +3754,7 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
     </row>
-    <row r="212" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -3741,7 +3768,7 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
     </row>
-    <row r="213" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -3755,7 +3782,7 @@
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -3769,7 +3796,7 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -3783,7 +3810,7 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -3797,7 +3824,7 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -3811,7 +3838,7 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -3825,7 +3852,7 @@
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
     </row>
-    <row r="219" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -3839,7 +3866,7 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
     </row>
-    <row r="220" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -3853,7 +3880,7 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -3867,7 +3894,7 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -3881,7 +3908,7 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -3895,7 +3922,7 @@
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -3909,7 +3936,7 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
     </row>
-    <row r="225" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -3923,7 +3950,7 @@
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -3937,7 +3964,7 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -3951,7 +3978,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -3965,7 +3992,7 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
     </row>
-    <row r="229" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -3979,7 +4006,7 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
     </row>
-    <row r="230" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -3993,7 +4020,7 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4007,7 +4034,7 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
     </row>
-    <row r="232" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4021,7 +4048,7 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
     </row>
-    <row r="233" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4035,7 +4062,7 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
     </row>
-    <row r="234" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4049,7 +4076,7 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
     </row>
-    <row r="235" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4063,7 +4090,7 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
     </row>
-    <row r="236" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4077,7 +4104,7 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
     </row>
-    <row r="237" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4091,7 +4118,7 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
     </row>
-    <row r="238" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4105,7 +4132,7 @@
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
     </row>
-    <row r="239" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4119,7 +4146,7 @@
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
     </row>
-    <row r="240" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4133,7 +4160,7 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
     </row>
-    <row r="241" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4147,7 +4174,7 @@
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4161,7 +4188,7 @@
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
     </row>
-    <row r="243" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -4175,7 +4202,7 @@
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
     </row>
-    <row r="244" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4189,7 +4216,7 @@
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
     </row>
-    <row r="245" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -4203,7 +4230,7 @@
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
     </row>
-    <row r="246" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -4217,7 +4244,7 @@
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
     </row>
-    <row r="247" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -4231,7 +4258,7 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
     </row>
-    <row r="248" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -4245,7 +4272,7 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
     </row>
-    <row r="249" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -4259,7 +4286,7 @@
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
     </row>
-    <row r="250" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -4273,7 +4300,7 @@
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
     </row>
-    <row r="251" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -4287,7 +4314,7 @@
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
     </row>
-    <row r="252" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -4301,7 +4328,7 @@
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -4315,7 +4342,7 @@
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -4329,7 +4356,7 @@
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
     </row>
-    <row r="255" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -4343,7 +4370,7 @@
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
     </row>
-    <row r="256" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -4357,7 +4384,7 @@
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
     </row>
-    <row r="257" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -4371,7 +4398,7 @@
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
     </row>
-    <row r="258" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -4385,7 +4412,7 @@
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
     </row>
-    <row r="259" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -4399,7 +4426,7 @@
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -4413,7 +4440,7 @@
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
     </row>
-    <row r="261" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4427,7 +4454,7 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
     </row>
-    <row r="262" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4441,7 +4468,7 @@
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
     </row>
-    <row r="263" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4455,7 +4482,7 @@
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
     </row>
-    <row r="264" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4469,7 +4496,7 @@
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
     </row>
-    <row r="265" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4483,7 +4510,7 @@
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4497,7 +4524,7 @@
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
     </row>
-    <row r="267" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4511,7 +4538,7 @@
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4525,7 +4552,7 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
     </row>
-    <row r="269" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4539,7 +4566,7 @@
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
     </row>
-    <row r="270" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4553,7 +4580,7 @@
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
     </row>
-    <row r="271" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4567,7 +4594,7 @@
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
     </row>
-    <row r="272" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4581,7 +4608,7 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -4595,7 +4622,7 @@
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
-    <row r="274" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -4609,7 +4636,7 @@
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
-    <row r="275" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -4623,7 +4650,7 @@
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
     </row>
-    <row r="276" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4637,7 +4664,7 @@
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
     </row>
-    <row r="277" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4651,7 +4678,7 @@
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
     </row>
-    <row r="278" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -4665,7 +4692,7 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -4679,7 +4706,7 @@
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
     </row>
-    <row r="280" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -4693,7 +4720,7 @@
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
     </row>
-    <row r="281" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -4707,7 +4734,7 @@
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -4721,7 +4748,7 @@
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
     </row>
-    <row r="283" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -4735,7 +4762,7 @@
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
     </row>
-    <row r="284" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -4749,7 +4776,7 @@
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
     </row>
-    <row r="285" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -4763,7 +4790,7 @@
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
     </row>
-    <row r="286" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -4777,7 +4804,7 @@
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
     </row>
-    <row r="287" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -4791,7 +4818,7 @@
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
     </row>
-    <row r="288" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -4805,7 +4832,7 @@
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
     </row>
-    <row r="289" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -4819,7 +4846,7 @@
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
     </row>
-    <row r="290" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -4833,7 +4860,7 @@
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
     </row>
-    <row r="291" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -4847,7 +4874,7 @@
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
     </row>
-    <row r="292" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -4861,7 +4888,7 @@
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
     </row>
-    <row r="293" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -4875,7 +4902,7 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
     </row>
-    <row r="294" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -4889,7 +4916,7 @@
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
     </row>
-    <row r="295" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -4903,7 +4930,7 @@
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
     </row>
-    <row r="296" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -4917,7 +4944,7 @@
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
     </row>
-    <row r="297" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -4931,7 +4958,7 @@
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
     </row>
-    <row r="298" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -4945,7 +4972,7 @@
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
     </row>
-    <row r="299" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -4959,7 +4986,7 @@
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
     </row>
-    <row r="300" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -4973,7 +5000,7 @@
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
     </row>
-    <row r="301" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -4987,7 +5014,7 @@
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
     </row>
-    <row r="302" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5001,7 +5028,7 @@
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
     </row>
-    <row r="303" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -5015,7 +5042,7 @@
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
     </row>
-    <row r="304" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -5029,7 +5056,7 @@
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
     </row>
-    <row r="305" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -5043,7 +5070,7 @@
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
     </row>
-    <row r="306" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -5057,7 +5084,7 @@
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
     </row>
-    <row r="307" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -5071,7 +5098,7 @@
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
     </row>
-    <row r="308" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -5085,7 +5112,7 @@
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
     </row>
-    <row r="309" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -5099,7 +5126,7 @@
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
     </row>
-    <row r="310" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -5113,7 +5140,7 @@
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
     </row>
-    <row r="311" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -5127,7 +5154,7 @@
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
     </row>
-    <row r="312" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -5141,7 +5168,7 @@
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
     </row>
-    <row r="313" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -5155,7 +5182,7 @@
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
     </row>
-    <row r="314" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -5169,7 +5196,7 @@
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
     </row>
-    <row r="315" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -5183,7 +5210,7 @@
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
     </row>
-    <row r="316" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -5197,7 +5224,7 @@
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
     </row>
-    <row r="317" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -5211,7 +5238,7 @@
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
     </row>
-    <row r="318" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -5225,7 +5252,7 @@
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
     </row>
-    <row r="319" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -5239,7 +5266,7 @@
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
     </row>
-    <row r="320" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -5253,7 +5280,7 @@
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
     </row>
-    <row r="321" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -5267,7 +5294,7 @@
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
     </row>
-    <row r="322" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -5281,7 +5308,7 @@
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
     </row>
-    <row r="323" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -5295,7 +5322,7 @@
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
     </row>
-    <row r="324" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -5309,7 +5336,7 @@
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
     </row>
-    <row r="325" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -5323,7 +5350,7 @@
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
     </row>
-    <row r="326" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -5337,7 +5364,7 @@
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
     </row>
-    <row r="327" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -5351,7 +5378,7 @@
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
     </row>
-    <row r="328" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -5365,7 +5392,7 @@
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
     </row>
-    <row r="329" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -5379,7 +5406,7 @@
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
     </row>
-    <row r="330" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -5393,7 +5420,7 @@
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
     </row>
-    <row r="331" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -5407,7 +5434,7 @@
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
     </row>
-    <row r="332" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -5421,7 +5448,7 @@
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
     </row>
-    <row r="333" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -5435,7 +5462,7 @@
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
     </row>
-    <row r="334" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -5449,7 +5476,7 @@
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
     </row>
-    <row r="335" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -5463,7 +5490,7 @@
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
     </row>
-    <row r="336" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5477,7 +5504,7 @@
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
     </row>
-    <row r="337" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -5491,7 +5518,7 @@
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
     </row>
-    <row r="338" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -5505,7 +5532,7 @@
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
     </row>
-    <row r="339" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5519,7 +5546,7 @@
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
     </row>
-    <row r="340" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5533,7 +5560,7 @@
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
     </row>
-    <row r="341" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5547,7 +5574,7 @@
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
     </row>
-    <row r="342" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5561,7 +5588,7 @@
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
     </row>
-    <row r="343" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5575,7 +5602,7 @@
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
     </row>
-    <row r="344" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5589,7 +5616,7 @@
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
     </row>
-    <row r="345" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5603,7 +5630,7 @@
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
     </row>
-    <row r="346" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5617,7 +5644,7 @@
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
     </row>
-    <row r="347" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -5631,7 +5658,7 @@
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
     </row>
-    <row r="348" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -5645,7 +5672,7 @@
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
     </row>
-    <row r="349" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -5659,7 +5686,7 @@
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
     </row>
-    <row r="350" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -5673,7 +5700,7 @@
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
     </row>
-    <row r="351" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -5687,7 +5714,7 @@
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
     </row>
-    <row r="352" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5701,7 +5728,7 @@
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
     </row>
-    <row r="353" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5715,7 +5742,7 @@
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
     </row>
-    <row r="354" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5729,7 +5756,7 @@
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
     </row>
-    <row r="355" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -5743,7 +5770,7 @@
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
     </row>
-    <row r="356" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -5757,7 +5784,7 @@
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
     </row>
-    <row r="357" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -5771,7 +5798,7 @@
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
     </row>
-    <row r="358" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -5785,7 +5812,7 @@
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
     </row>
-    <row r="359" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -5799,7 +5826,7 @@
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
     </row>
-    <row r="360" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -5813,7 +5840,7 @@
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
     </row>
-    <row r="361" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -5827,7 +5854,7 @@
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
     </row>
-    <row r="362" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -5841,7 +5868,7 @@
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
     </row>
-    <row r="363" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -5855,7 +5882,7 @@
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -5869,7 +5896,7 @@
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
     </row>
-    <row r="365" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -5883,7 +5910,7 @@
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
     </row>
-    <row r="366" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -5897,7 +5924,7 @@
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
     </row>
-    <row r="367" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -5911,7 +5938,7 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
     </row>
-    <row r="368" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -5925,7 +5952,7 @@
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
     </row>
-    <row r="369" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -5939,7 +5966,7 @@
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
     </row>
-    <row r="370" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -5953,7 +5980,7 @@
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
     </row>
-    <row r="371" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -5967,7 +5994,7 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
     </row>
-    <row r="372" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -5981,7 +6008,7 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
     </row>
-    <row r="373" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -5995,7 +6022,7 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
     </row>
-    <row r="374" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -6009,7 +6036,7 @@
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
     </row>
-    <row r="375" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -6023,7 +6050,7 @@
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
     </row>
-    <row r="376" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -6037,7 +6064,7 @@
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
     </row>
-    <row r="377" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -6051,7 +6078,7 @@
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
     </row>
-    <row r="378" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -6065,7 +6092,7 @@
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
     </row>
-    <row r="379" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -6079,7 +6106,7 @@
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
     </row>
-    <row r="380" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -6093,7 +6120,7 @@
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
     </row>
-    <row r="381" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -6107,7 +6134,7 @@
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
     </row>
-    <row r="382" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -6121,7 +6148,7 @@
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
     </row>
-    <row r="383" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -6135,7 +6162,7 @@
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
     </row>
-    <row r="384" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -6149,7 +6176,7 @@
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
     </row>
-    <row r="385" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -6163,7 +6190,7 @@
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
     </row>
-    <row r="386" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -6177,7 +6204,7 @@
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
     </row>
-    <row r="387" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -6191,7 +6218,7 @@
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
     </row>
-    <row r="388" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -6205,7 +6232,7 @@
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
     </row>
-    <row r="389" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -6219,7 +6246,7 @@
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
     </row>
-    <row r="390" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -6233,7 +6260,7 @@
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
     </row>
-    <row r="391" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -6247,7 +6274,7 @@
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
     </row>
-    <row r="392" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -6261,7 +6288,7 @@
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
     </row>
-    <row r="393" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -6275,7 +6302,7 @@
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
     </row>
-    <row r="394" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -6289,7 +6316,7 @@
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
     </row>
-    <row r="395" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -6303,7 +6330,7 @@
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
     </row>
-    <row r="396" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -6317,7 +6344,7 @@
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
     </row>
-    <row r="397" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -6331,7 +6358,7 @@
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
     </row>
-    <row r="398" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -6345,7 +6372,7 @@
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
     </row>
-    <row r="399" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -6359,7 +6386,7 @@
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
     </row>
-    <row r="400" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -6373,7 +6400,7 @@
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
     </row>
-    <row r="401" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -6387,7 +6414,7 @@
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
     </row>
-    <row r="402" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -6401,7 +6428,7 @@
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
     </row>
-    <row r="403" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -6415,7 +6442,7 @@
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
     </row>
-    <row r="404" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -6429,7 +6456,7 @@
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
     </row>
-    <row r="405" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -6443,7 +6470,7 @@
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
     </row>
-    <row r="406" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -6457,7 +6484,7 @@
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
     </row>
-    <row r="407" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -6471,7 +6498,7 @@
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
     </row>
-    <row r="408" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -6485,7 +6512,7 @@
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
     </row>
-    <row r="409" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -6499,7 +6526,7 @@
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
     </row>
-    <row r="410" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -6513,7 +6540,7 @@
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
     </row>
-    <row r="411" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -6527,7 +6554,7 @@
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
     </row>
-    <row r="412" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -6541,7 +6568,7 @@
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
     </row>
-    <row r="413" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -6555,7 +6582,7 @@
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
     </row>
-    <row r="414" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -6569,7 +6596,7 @@
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
     </row>
-    <row r="415" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -6583,7 +6610,7 @@
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
     </row>
-    <row r="416" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -6597,7 +6624,7 @@
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
     </row>
-    <row r="417" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -6611,7 +6638,7 @@
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
     </row>
-    <row r="418" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -6625,7 +6652,7 @@
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
     </row>
-    <row r="419" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -6639,7 +6666,7 @@
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
     </row>
-    <row r="420" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -6653,7 +6680,7 @@
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
     </row>
-    <row r="421" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -6667,7 +6694,7 @@
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
     </row>
-    <row r="422" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -6681,7 +6708,7 @@
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
     </row>
-    <row r="423" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -6695,7 +6722,7 @@
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
     </row>
-    <row r="424" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -6709,7 +6736,7 @@
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
     </row>
-    <row r="425" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -6723,7 +6750,7 @@
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
     </row>
-    <row r="426" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -6737,7 +6764,7 @@
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
     </row>
-    <row r="427" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -6751,7 +6778,7 @@
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
     </row>
-    <row r="428" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -6765,7 +6792,7 @@
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
     </row>
-    <row r="429" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -6779,7 +6806,7 @@
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
     </row>
-    <row r="430" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -6793,7 +6820,7 @@
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
     </row>
-    <row r="431" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -6807,7 +6834,7 @@
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
     </row>
-    <row r="432" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -6821,7 +6848,7 @@
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
     </row>
-    <row r="433" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -6835,7 +6862,7 @@
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
     </row>
-    <row r="434" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -6849,7 +6876,7 @@
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
     </row>
-    <row r="435" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -6863,7 +6890,7 @@
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
     </row>
-    <row r="436" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -6877,7 +6904,7 @@
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
     </row>
-    <row r="437" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -6891,7 +6918,7 @@
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
     </row>
-    <row r="438" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -6905,7 +6932,7 @@
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
     </row>
-    <row r="439" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -6919,7 +6946,7 @@
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -6933,7 +6960,7 @@
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
     </row>
-    <row r="441" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -6947,7 +6974,7 @@
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
     </row>
-    <row r="442" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -6961,7 +6988,7 @@
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
     </row>
-    <row r="443" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -6975,7 +7002,7 @@
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
     </row>
-    <row r="444" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -6989,7 +7016,7 @@
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
     </row>
-    <row r="445" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -7003,7 +7030,7 @@
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
     </row>
-    <row r="446" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -7017,7 +7044,7 @@
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
     </row>
-    <row r="447" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -7031,7 +7058,7 @@
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
     </row>
-    <row r="448" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -7045,7 +7072,7 @@
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
     </row>
-    <row r="449" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -7059,7 +7086,7 @@
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
     </row>
-    <row r="450" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -7073,7 +7100,7 @@
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
     </row>
-    <row r="451" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -7087,7 +7114,7 @@
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
     </row>
-    <row r="452" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -7101,7 +7128,7 @@
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
     </row>
-    <row r="453" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -7115,7 +7142,7 @@
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
     </row>
-    <row r="454" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -7129,7 +7156,7 @@
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
     </row>
-    <row r="455" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -7143,7 +7170,7 @@
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
     </row>
-    <row r="456" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -7157,7 +7184,7 @@
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
     </row>
-    <row r="457" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -7171,7 +7198,7 @@
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
     </row>
-    <row r="458" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -7185,7 +7212,7 @@
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
     </row>
-    <row r="459" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -7199,7 +7226,7 @@
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
     </row>
-    <row r="460" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -7213,7 +7240,7 @@
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
     </row>
-    <row r="461" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -7227,7 +7254,7 @@
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
     </row>
-    <row r="462" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -7241,7 +7268,7 @@
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
     </row>
-    <row r="463" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -7255,7 +7282,7 @@
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
     </row>
-    <row r="464" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -7269,7 +7296,7 @@
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
     </row>
-    <row r="465" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -7283,7 +7310,7 @@
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
     </row>
-    <row r="466" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -7297,7 +7324,7 @@
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
     </row>
-    <row r="467" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -7311,7 +7338,7 @@
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
     </row>
-    <row r="468" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -7325,7 +7352,7 @@
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
     </row>
-    <row r="469" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -7339,7 +7366,7 @@
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
     </row>
-    <row r="470" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -7353,7 +7380,7 @@
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
     </row>
-    <row r="471" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -7367,7 +7394,7 @@
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
     </row>
-    <row r="472" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -7381,7 +7408,7 @@
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
     </row>
-    <row r="473" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -7395,7 +7422,7 @@
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
     </row>
-    <row r="474" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -7409,7 +7436,7 @@
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
     </row>
-    <row r="475" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -7423,7 +7450,7 @@
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
     </row>
-    <row r="476" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -7437,7 +7464,7 @@
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
     </row>
-    <row r="477" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -7451,7 +7478,7 @@
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
     </row>
-    <row r="478" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -7465,7 +7492,7 @@
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
     </row>
-    <row r="479" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -7479,7 +7506,7 @@
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
     </row>
-    <row r="480" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -7493,7 +7520,7 @@
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
     </row>
-    <row r="481" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -7507,7 +7534,7 @@
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
     </row>
-    <row r="482" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -7521,7 +7548,7 @@
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
     </row>
-    <row r="483" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -7535,7 +7562,7 @@
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
     </row>
-    <row r="484" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -7549,7 +7576,7 @@
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
     </row>
-    <row r="485" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -7563,7 +7590,7 @@
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
     </row>
-    <row r="486" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -7577,7 +7604,7 @@
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
     </row>
-    <row r="487" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -7591,7 +7618,7 @@
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
     </row>
-    <row r="488" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -7605,7 +7632,7 @@
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
     </row>
-    <row r="489" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -7619,7 +7646,7 @@
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
     </row>
-    <row r="490" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -7633,7 +7660,7 @@
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
     </row>
-    <row r="491" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -7647,7 +7674,7 @@
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
     </row>
-    <row r="492" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -7661,7 +7688,7 @@
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
     </row>
-    <row r="493" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -7675,7 +7702,7 @@
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
     </row>
-    <row r="494" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -7689,7 +7716,7 @@
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
     </row>
-    <row r="495" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -7703,7 +7730,7 @@
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
     </row>
-    <row r="496" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -7717,7 +7744,7 @@
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
     </row>
-    <row r="497" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -7731,7 +7758,7 @@
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
     </row>
-    <row r="498" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -7745,7 +7772,7 @@
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
     </row>
-    <row r="499" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -7759,7 +7786,7 @@
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
     </row>
-    <row r="500" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -7773,7 +7800,7 @@
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
     </row>
-    <row r="501" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -7787,7 +7814,7 @@
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
     </row>
-    <row r="502" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -7801,7 +7828,7 @@
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
     </row>
-    <row r="503" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -7815,7 +7842,7 @@
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
     </row>
-    <row r="504" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -7829,7 +7856,7 @@
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
     </row>
-    <row r="505" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -7843,7 +7870,7 @@
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
     </row>
-    <row r="506" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -7857,7 +7884,7 @@
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
     </row>
-    <row r="507" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -7871,7 +7898,7 @@
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
     </row>
-    <row r="508" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -7885,7 +7912,7 @@
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
     </row>
-    <row r="509" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -7899,7 +7926,7 @@
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
     </row>
-    <row r="510" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -7913,7 +7940,7 @@
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
     </row>
-    <row r="511" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -7927,7 +7954,7 @@
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
     </row>
-    <row r="512" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -7941,7 +7968,7 @@
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
     </row>
-    <row r="513" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -7955,7 +7982,7 @@
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
     </row>
-    <row r="514" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -7969,7 +7996,7 @@
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
     </row>
-    <row r="515" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -7983,7 +8010,7 @@
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
     </row>
-    <row r="516" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -7997,7 +8024,7 @@
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
     </row>
-    <row r="517" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -8011,7 +8038,7 @@
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
     </row>
-    <row r="518" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -8025,7 +8052,7 @@
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
     </row>
-    <row r="519" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -8039,7 +8066,7 @@
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
     </row>
-    <row r="520" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -8053,7 +8080,7 @@
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
     </row>
-    <row r="521" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -8067,7 +8094,7 @@
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
     </row>
-    <row r="522" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -8081,7 +8108,7 @@
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
     </row>
-    <row r="523" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -8095,7 +8122,7 @@
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
     </row>
-    <row r="524" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -8109,7 +8136,7 @@
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
     </row>
-    <row r="525" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -8123,7 +8150,7 @@
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
     </row>
-    <row r="526" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -8137,7 +8164,7 @@
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
     </row>
-    <row r="527" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -8151,7 +8178,7 @@
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
     </row>
-    <row r="528" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -8165,7 +8192,7 @@
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
     </row>
-    <row r="529" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -8179,7 +8206,7 @@
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
     </row>
-    <row r="530" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -8193,7 +8220,7 @@
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
     </row>
-    <row r="531" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -8207,7 +8234,7 @@
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
     </row>
-    <row r="532" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -8221,7 +8248,7 @@
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
     </row>
-    <row r="533" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -8235,7 +8262,7 @@
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
     </row>
-    <row r="534" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -8249,7 +8276,7 @@
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
     </row>
-    <row r="535" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -8263,7 +8290,7 @@
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
     </row>
-    <row r="536" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -8277,7 +8304,7 @@
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
     </row>
-    <row r="537" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -8291,7 +8318,7 @@
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
     </row>
-    <row r="538" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -8305,7 +8332,7 @@
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
     </row>
-    <row r="539" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -8319,7 +8346,7 @@
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
     </row>
-    <row r="540" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -8333,7 +8360,7 @@
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -8347,7 +8374,7 @@
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
     </row>
-    <row r="542" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -8361,7 +8388,7 @@
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
     </row>
-    <row r="543" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -8375,7 +8402,7 @@
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
     </row>
-    <row r="544" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -8389,7 +8416,7 @@
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
     </row>
-    <row r="545" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -8403,7 +8430,7 @@
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
     </row>
-    <row r="546" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -8417,7 +8444,7 @@
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
     </row>
-    <row r="547" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -8431,7 +8458,7 @@
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
     </row>
-    <row r="548" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -8445,7 +8472,7 @@
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
     </row>
-    <row r="549" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -8459,7 +8486,7 @@
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
     </row>
-    <row r="550" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -8473,7 +8500,7 @@
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -8487,7 +8514,7 @@
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
     </row>
-    <row r="552" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -8501,7 +8528,7 @@
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
     </row>
-    <row r="553" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -8515,7 +8542,7 @@
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
     </row>
-    <row r="554" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -8529,7 +8556,7 @@
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
     </row>
-    <row r="555" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -8543,7 +8570,7 @@
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
     </row>
-    <row r="556" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -8557,7 +8584,7 @@
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
     </row>
-    <row r="557" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -8571,7 +8598,7 @@
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
     </row>
-    <row r="558" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -8585,7 +8612,7 @@
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
     </row>
-    <row r="559" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -8599,7 +8626,7 @@
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
     </row>
-    <row r="560" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -8613,7 +8640,7 @@
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
     </row>
-    <row r="561" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -8627,7 +8654,7 @@
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
     </row>
-    <row r="562" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -8641,7 +8668,7 @@
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
     </row>
-    <row r="563" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -8655,7 +8682,7 @@
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
     </row>
-    <row r="564" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -8669,7 +8696,7 @@
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
     </row>
-    <row r="565" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -8683,7 +8710,7 @@
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
     </row>
-    <row r="566" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -8697,7 +8724,7 @@
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
     </row>
-    <row r="567" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -8711,7 +8738,7 @@
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -8725,7 +8752,7 @@
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
     </row>
-    <row r="569" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -8739,7 +8766,7 @@
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
     </row>
-    <row r="570" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -8753,7 +8780,7 @@
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
     </row>
-    <row r="571" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -8767,7 +8794,7 @@
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
     </row>
-    <row r="572" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -8781,7 +8808,7 @@
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
     </row>
-    <row r="573" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -8795,7 +8822,7 @@
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
     </row>
-    <row r="574" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -8809,7 +8836,7 @@
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
     </row>
-    <row r="575" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -8823,7 +8850,7 @@
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
     </row>
-    <row r="576" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -8837,7 +8864,7 @@
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
     </row>
-    <row r="577" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -8851,7 +8878,7 @@
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -8865,7 +8892,7 @@
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
     </row>
-    <row r="579" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -8879,7 +8906,7 @@
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -8893,7 +8920,7 @@
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
     </row>
-    <row r="581" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -8907,7 +8934,7 @@
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
     </row>
-    <row r="582" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -8921,7 +8948,7 @@
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
     </row>
-    <row r="583" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -8935,7 +8962,7 @@
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
     </row>
-    <row r="584" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -8949,7 +8976,7 @@
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
     </row>
-    <row r="585" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -8963,7 +8990,7 @@
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
     </row>
-    <row r="586" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -8977,7 +9004,7 @@
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -8991,7 +9018,7 @@
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
     </row>
-    <row r="588" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -9005,7 +9032,7 @@
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
     </row>
-    <row r="589" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -9019,7 +9046,7 @@
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
     </row>
-    <row r="590" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -9033,7 +9060,7 @@
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
     </row>
-    <row r="591" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -9047,7 +9074,7 @@
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
     </row>
-    <row r="592" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -9061,7 +9088,7 @@
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
     </row>
-    <row r="593" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -9075,7 +9102,7 @@
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
     </row>
-    <row r="594" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -9089,7 +9116,7 @@
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
     </row>
-    <row r="595" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -9103,7 +9130,7 @@
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
     </row>
-    <row r="596" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -9117,7 +9144,7 @@
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -9131,7 +9158,7 @@
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
     </row>
-    <row r="598" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -9145,7 +9172,7 @@
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
     </row>
-    <row r="599" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -9159,7 +9186,7 @@
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
     </row>
-    <row r="600" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -9173,7 +9200,7 @@
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
     </row>
-    <row r="601" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -9187,7 +9214,7 @@
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
     </row>
-    <row r="602" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -9201,7 +9228,7 @@
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
     </row>
-    <row r="603" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -9215,7 +9242,7 @@
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
     </row>
-    <row r="604" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -9229,7 +9256,7 @@
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
     </row>
-    <row r="605" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -9243,7 +9270,7 @@
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
     </row>
-    <row r="606" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -9257,7 +9284,7 @@
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -9271,7 +9298,7 @@
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
     </row>
-    <row r="608" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -9285,7 +9312,7 @@
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
     </row>
-    <row r="609" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -9299,7 +9326,7 @@
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
     </row>
-    <row r="610" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -9313,7 +9340,7 @@
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
     </row>
-    <row r="611" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -9327,7 +9354,7 @@
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
     </row>
-    <row r="612" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -9341,7 +9368,7 @@
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
     </row>
-    <row r="613" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -9355,7 +9382,7 @@
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
     </row>
-    <row r="614" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -9369,7 +9396,7 @@
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
     </row>
-    <row r="615" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -9383,7 +9410,7 @@
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
     </row>
-    <row r="616" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -9397,7 +9424,7 @@
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
     </row>
-    <row r="617" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -9411,7 +9438,7 @@
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
     </row>
-    <row r="618" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -9425,7 +9452,7 @@
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -9439,7 +9466,7 @@
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
     </row>
-    <row r="620" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -9453,7 +9480,7 @@
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
     </row>
-    <row r="621" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -9467,7 +9494,7 @@
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
     </row>
-    <row r="622" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -9481,7 +9508,7 @@
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
     </row>
-    <row r="623" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -9495,7 +9522,7 @@
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
     </row>
-    <row r="624" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -9509,7 +9536,7 @@
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
     </row>
-    <row r="625" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -9523,7 +9550,7 @@
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -9537,7 +9564,7 @@
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
     </row>
-    <row r="627" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -9551,7 +9578,7 @@
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
     </row>
-    <row r="628" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -9565,7 +9592,7 @@
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
     </row>
-    <row r="629" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -9579,7 +9606,7 @@
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
     </row>
-    <row r="630" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -9593,7 +9620,7 @@
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
     </row>
-    <row r="631" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -9607,7 +9634,7 @@
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
     </row>
-    <row r="632" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -9621,7 +9648,7 @@
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
     </row>
-    <row r="633" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -9635,7 +9662,7 @@
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
     </row>
-    <row r="634" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -9649,7 +9676,7 @@
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
     </row>
-    <row r="635" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -9663,7 +9690,7 @@
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -9677,7 +9704,7 @@
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
     </row>
-    <row r="637" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -9691,7 +9718,7 @@
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
     </row>
-    <row r="638" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -9705,7 +9732,7 @@
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
     </row>
-    <row r="639" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -9719,7 +9746,7 @@
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
     </row>
-    <row r="640" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -9733,7 +9760,7 @@
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
     </row>
-    <row r="641" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -9747,7 +9774,7 @@
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
     </row>
-    <row r="642" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -9761,7 +9788,7 @@
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
     </row>
-    <row r="643" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -9775,7 +9802,7 @@
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
     </row>
-    <row r="644" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -9789,7 +9816,7 @@
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
     </row>
-    <row r="645" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -9803,7 +9830,7 @@
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -9817,7 +9844,7 @@
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
     </row>
-    <row r="647" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -9831,7 +9858,7 @@
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
     </row>
-    <row r="648" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -9845,7 +9872,7 @@
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
     </row>
-    <row r="649" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -9859,7 +9886,7 @@
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
     </row>
-    <row r="650" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -9873,7 +9900,7 @@
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
     </row>
-    <row r="651" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -9887,7 +9914,7 @@
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
     </row>
-    <row r="652" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -9901,7 +9928,7 @@
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
     </row>
-    <row r="653" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -9915,7 +9942,7 @@
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
     </row>
-    <row r="654" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -9929,7 +9956,7 @@
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
     </row>
-    <row r="655" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -9943,7 +9970,7 @@
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
     </row>
-    <row r="656" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -9957,7 +9984,7 @@
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
     </row>
-    <row r="657" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -9971,7 +9998,7 @@
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -9985,7 +10012,7 @@
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
     </row>
-    <row r="659" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -9999,7 +10026,7 @@
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
     </row>
-    <row r="660" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -10013,7 +10040,7 @@
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
     </row>
-    <row r="661" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -10027,7 +10054,7 @@
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
     </row>
-    <row r="662" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -10041,7 +10068,7 @@
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
     </row>
-    <row r="663" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -10055,7 +10082,7 @@
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
     </row>
-    <row r="664" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -10069,7 +10096,7 @@
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
     </row>
-    <row r="665" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -10083,7 +10110,7 @@
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
     </row>
-    <row r="666" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -10097,7 +10124,7 @@
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
     </row>
-    <row r="667" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -10111,7 +10138,7 @@
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
     </row>
-    <row r="668" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -10125,7 +10152,7 @@
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
     </row>
-    <row r="669" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -10139,7 +10166,7 @@
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
     </row>
-    <row r="670" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -10153,7 +10180,7 @@
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
     </row>
-    <row r="671" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -10167,7 +10194,7 @@
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
     </row>
-    <row r="672" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -10181,7 +10208,7 @@
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
     </row>
-    <row r="673" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -10195,7 +10222,7 @@
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
     </row>
-    <row r="674" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -10209,7 +10236,7 @@
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
     </row>
-    <row r="675" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -10223,7 +10250,7 @@
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
     </row>
-    <row r="676" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -10237,7 +10264,7 @@
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
     </row>
-    <row r="677" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -10251,7 +10278,7 @@
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
     </row>
-    <row r="678" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -10265,7 +10292,7 @@
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
     </row>
-    <row r="679" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -10279,7 +10306,7 @@
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
     </row>
-    <row r="680" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -10293,7 +10320,7 @@
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
     </row>
-    <row r="681" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -10307,7 +10334,7 @@
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
     </row>
-    <row r="682" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -10321,7 +10348,7 @@
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
     </row>
-    <row r="683" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -10335,7 +10362,7 @@
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
     </row>
-    <row r="684" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -10349,7 +10376,7 @@
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
     </row>
-    <row r="685" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -10363,7 +10390,7 @@
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
     </row>
-    <row r="686" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -10377,7 +10404,7 @@
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
     </row>
-    <row r="687" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -10391,7 +10418,7 @@
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
     </row>
-    <row r="688" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -10405,7 +10432,7 @@
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
     </row>
-    <row r="689" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -10419,7 +10446,7 @@
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
     </row>
-    <row r="690" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -10433,7 +10460,7 @@
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
     </row>
-    <row r="691" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -10447,7 +10474,7 @@
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
     </row>
-    <row r="692" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -10461,7 +10488,7 @@
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
     </row>
-    <row r="693" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -10475,7 +10502,7 @@
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
     </row>
-    <row r="694" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -10489,7 +10516,7 @@
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
     </row>
-    <row r="695" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -10503,7 +10530,7 @@
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
     </row>
-    <row r="696" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -10517,7 +10544,7 @@
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
     </row>
-    <row r="697" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -10531,7 +10558,7 @@
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
     </row>
-    <row r="698" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -10545,7 +10572,7 @@
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
     </row>
-    <row r="699" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -10559,7 +10586,7 @@
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
     </row>
-    <row r="700" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -10573,7 +10600,7 @@
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
     </row>
-    <row r="701" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -10587,7 +10614,7 @@
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
     </row>
-    <row r="702" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -10601,7 +10628,7 @@
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
     </row>
-    <row r="703" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -10615,7 +10642,7 @@
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
     </row>
-    <row r="704" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -10629,7 +10656,7 @@
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
     </row>
-    <row r="705" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -10643,7 +10670,7 @@
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
     </row>
-    <row r="706" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -10657,7 +10684,7 @@
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
     </row>
-    <row r="707" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -10671,7 +10698,7 @@
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
     </row>
-    <row r="708" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -10685,7 +10712,7 @@
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
     </row>
-    <row r="709" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -10699,7 +10726,7 @@
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
     </row>
-    <row r="710" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -10713,7 +10740,7 @@
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
     </row>
-    <row r="711" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -10727,7 +10754,7 @@
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
     </row>
-    <row r="712" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -10741,7 +10768,7 @@
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
     </row>
-    <row r="713" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -10755,7 +10782,7 @@
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
     </row>
-    <row r="714" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -10769,7 +10796,7 @@
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
     </row>
-    <row r="715" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -10783,7 +10810,7 @@
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
     </row>
-    <row r="716" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -10797,7 +10824,7 @@
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
     </row>
-    <row r="717" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -10811,7 +10838,7 @@
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
     </row>
-    <row r="718" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -10825,7 +10852,7 @@
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
     </row>
-    <row r="719" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -10839,7 +10866,7 @@
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
     </row>
-    <row r="720" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -10853,7 +10880,7 @@
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
     </row>
-    <row r="721" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -10867,7 +10894,7 @@
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
     </row>
-    <row r="722" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -10881,7 +10908,7 @@
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
     </row>
-    <row r="723" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -10895,7 +10922,7 @@
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
     </row>
-    <row r="724" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -10909,7 +10936,7 @@
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
     </row>
-    <row r="725" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -10923,7 +10950,7 @@
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
     </row>
-    <row r="726" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -10937,7 +10964,7 @@
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
     </row>
-    <row r="727" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -10951,7 +10978,7 @@
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
     </row>
-    <row r="728" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -10965,7 +10992,7 @@
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
     </row>
-    <row r="729" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -10979,7 +11006,7 @@
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
     </row>
-    <row r="730" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -10993,7 +11020,7 @@
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
     </row>
-    <row r="731" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -11007,7 +11034,7 @@
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
     </row>
-    <row r="732" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -11021,7 +11048,7 @@
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
     </row>
-    <row r="733" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -11035,7 +11062,7 @@
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
     </row>
-    <row r="734" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -11049,7 +11076,7 @@
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
     </row>
-    <row r="735" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -11063,7 +11090,7 @@
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
     </row>
-    <row r="736" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -11077,7 +11104,7 @@
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
     </row>
-    <row r="737" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -11091,7 +11118,7 @@
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
     </row>
-    <row r="738" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -11105,7 +11132,7 @@
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
     </row>
-    <row r="739" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -11119,7 +11146,7 @@
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
     </row>
-    <row r="740" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -11133,7 +11160,7 @@
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
     </row>
-    <row r="741" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -11147,7 +11174,7 @@
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
     </row>
-    <row r="742" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -11161,7 +11188,7 @@
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
     </row>
-    <row r="743" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -11175,7 +11202,7 @@
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
     </row>
-    <row r="744" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -11189,7 +11216,7 @@
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
     </row>
-    <row r="745" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -11203,7 +11230,7 @@
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
     </row>
-    <row r="746" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -11217,7 +11244,7 @@
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
     </row>
-    <row r="747" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -11231,7 +11258,7 @@
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
     </row>
-    <row r="748" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -11245,7 +11272,7 @@
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
     </row>
-    <row r="749" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -11259,7 +11286,7 @@
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
     </row>
-    <row r="750" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -11273,7 +11300,7 @@
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
     </row>
-    <row r="751" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -11287,7 +11314,7 @@
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
     </row>
-    <row r="752" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -11301,7 +11328,7 @@
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
     </row>
-    <row r="753" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -11315,7 +11342,7 @@
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
     </row>
-    <row r="754" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -11329,7 +11356,7 @@
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
     </row>
-    <row r="755" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -11343,7 +11370,7 @@
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
     </row>
-    <row r="756" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -11357,7 +11384,7 @@
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
     </row>
-    <row r="757" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -11371,7 +11398,7 @@
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
     </row>
-    <row r="758" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -11385,7 +11412,7 @@
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
     </row>
-    <row r="759" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -11399,7 +11426,7 @@
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
     </row>
-    <row r="760" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -11413,7 +11440,7 @@
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
     </row>
-    <row r="761" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -11427,7 +11454,7 @@
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
     </row>
-    <row r="762" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -11441,7 +11468,7 @@
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
     </row>
-    <row r="763" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -11455,7 +11482,7 @@
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
     </row>
-    <row r="764" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -11469,7 +11496,7 @@
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
     </row>
-    <row r="765" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -11483,7 +11510,7 @@
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
     </row>
-    <row r="766" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -11497,7 +11524,7 @@
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
     </row>
-    <row r="767" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -11511,7 +11538,7 @@
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
     </row>
-    <row r="768" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -11525,7 +11552,7 @@
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
     </row>
-    <row r="769" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -11539,7 +11566,7 @@
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
     </row>
-    <row r="770" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -11553,7 +11580,7 @@
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
     </row>
-    <row r="771" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -11567,7 +11594,7 @@
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
     </row>
-    <row r="772" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -11581,7 +11608,7 @@
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
     </row>
-    <row r="773" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -11595,7 +11622,7 @@
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
     </row>
-    <row r="774" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -11609,7 +11636,7 @@
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
     </row>
-    <row r="775" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -11623,7 +11650,7 @@
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
     </row>
-    <row r="776" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -11637,7 +11664,7 @@
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
     </row>
-    <row r="777" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -11651,7 +11678,7 @@
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
     </row>
-    <row r="778" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -11665,7 +11692,7 @@
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
     </row>
-    <row r="779" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -11679,7 +11706,7 @@
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
     </row>
-    <row r="780" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -11693,7 +11720,7 @@
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
     </row>
-    <row r="781" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -11707,7 +11734,7 @@
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
     </row>
-    <row r="782" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -11721,7 +11748,7 @@
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
     </row>
-    <row r="783" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -11735,7 +11762,7 @@
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
     </row>
-    <row r="784" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -11749,7 +11776,7 @@
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
     </row>
-    <row r="785" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -11763,7 +11790,7 @@
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
     </row>
-    <row r="786" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -11777,7 +11804,7 @@
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
     </row>
-    <row r="787" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -11791,7 +11818,7 @@
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
     </row>
-    <row r="788" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -11805,7 +11832,7 @@
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
     </row>
-    <row r="789" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -11819,7 +11846,7 @@
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
     </row>
-    <row r="790" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -11833,7 +11860,7 @@
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
     </row>
-    <row r="791" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -11847,7 +11874,7 @@
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
     </row>
-    <row r="792" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -11861,7 +11888,7 @@
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
     </row>
-    <row r="793" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -11875,7 +11902,7 @@
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
     </row>
-    <row r="794" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -11889,7 +11916,7 @@
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
     </row>
-    <row r="795" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -11903,7 +11930,7 @@
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
     </row>
-    <row r="796" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -11917,7 +11944,7 @@
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
     </row>
-    <row r="797" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -11931,7 +11958,7 @@
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
     </row>
-    <row r="798" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -11945,7 +11972,7 @@
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
     </row>
-    <row r="799" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -11959,7 +11986,7 @@
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
     </row>
-    <row r="800" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -11973,7 +12000,7 @@
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
     </row>
-    <row r="801" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -11987,7 +12014,7 @@
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
     </row>
-    <row r="802" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -12001,7 +12028,7 @@
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
     </row>
-    <row r="803" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -12015,7 +12042,7 @@
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
     </row>
-    <row r="804" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -12029,7 +12056,7 @@
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
     </row>
-    <row r="805" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -12043,7 +12070,7 @@
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
     </row>
-    <row r="806" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -12057,7 +12084,7 @@
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
     </row>
-    <row r="807" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -12071,7 +12098,7 @@
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
     </row>
-    <row r="808" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -12085,7 +12112,7 @@
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
     </row>
-    <row r="809" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -12099,7 +12126,7 @@
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
     </row>
-    <row r="810" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -12113,7 +12140,7 @@
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
     </row>
-    <row r="811" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -12127,7 +12154,7 @@
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
     </row>
-    <row r="812" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -12141,7 +12168,7 @@
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
     </row>
-    <row r="813" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -12155,7 +12182,7 @@
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
     </row>
-    <row r="814" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -12169,7 +12196,7 @@
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
     </row>
-    <row r="815" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
       <c r="D815" s="1"/>
@@ -12183,7 +12210,7 @@
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
     </row>
-    <row r="816" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
       <c r="D816" s="1"/>
@@ -12197,7 +12224,7 @@
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
     </row>
-    <row r="817" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
       <c r="D817" s="1"/>
@@ -12211,7 +12238,7 @@
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
     </row>
-    <row r="818" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
       <c r="D818" s="1"/>
@@ -12225,7 +12252,7 @@
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
     </row>
-    <row r="819" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
       <c r="D819" s="1"/>
@@ -12239,7 +12266,7 @@
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
     </row>
-    <row r="820" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
       <c r="D820" s="1"/>
@@ -12253,7 +12280,7 @@
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
     </row>
-    <row r="821" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
       <c r="D821" s="1"/>
@@ -12267,7 +12294,7 @@
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
     </row>
-    <row r="822" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
       <c r="D822" s="1"/>
@@ -12281,7 +12308,7 @@
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
     </row>
-    <row r="823" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
       <c r="D823" s="1"/>
@@ -12295,7 +12322,7 @@
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
     </row>
-    <row r="824" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
       <c r="D824" s="1"/>
@@ -12309,7 +12336,7 @@
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
     </row>
-    <row r="825" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
       <c r="D825" s="1"/>
@@ -12323,7 +12350,7 @@
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
     </row>
-    <row r="826" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
       <c r="D826" s="1"/>
@@ -12337,7 +12364,7 @@
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
     </row>
-    <row r="827" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
       <c r="D827" s="1"/>
@@ -12351,7 +12378,7 @@
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
     </row>
-    <row r="828" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
       <c r="D828" s="1"/>
@@ -12365,7 +12392,7 @@
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
     </row>
-    <row r="829" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
       <c r="D829" s="1"/>
@@ -12379,7 +12406,7 @@
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
     </row>
-    <row r="830" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
       <c r="D830" s="1"/>
@@ -12393,7 +12420,7 @@
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
     </row>
-    <row r="831" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
       <c r="D831" s="1"/>
@@ -12407,7 +12434,7 @@
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
     </row>
-    <row r="832" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
       <c r="D832" s="1"/>
@@ -12421,7 +12448,7 @@
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
     </row>
-    <row r="833" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
       <c r="D833" s="1"/>
@@ -12435,7 +12462,7 @@
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
     </row>
-    <row r="834" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
       <c r="D834" s="1"/>
@@ -12449,7 +12476,7 @@
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
     </row>
-    <row r="835" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
       <c r="D835" s="1"/>
@@ -12463,7 +12490,7 @@
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
     </row>
-    <row r="836" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
       <c r="D836" s="1"/>
@@ -12477,7 +12504,7 @@
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
     </row>
-    <row r="837" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
       <c r="D837" s="1"/>
@@ -12491,7 +12518,7 @@
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
     </row>
-    <row r="838" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
       <c r="D838" s="1"/>
@@ -12505,7 +12532,7 @@
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
     </row>
-    <row r="839" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
       <c r="D839" s="1"/>
@@ -12519,7 +12546,7 @@
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
     </row>
-    <row r="840" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
       <c r="D840" s="1"/>
@@ -12533,7 +12560,7 @@
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
     </row>
-    <row r="841" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
       <c r="D841" s="1"/>
@@ -12547,7 +12574,7 @@
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
     </row>
-    <row r="842" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
       <c r="D842" s="1"/>
@@ -12561,7 +12588,7 @@
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
     </row>
-    <row r="843" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
       <c r="D843" s="1"/>
@@ -12575,7 +12602,7 @@
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
     </row>
-    <row r="844" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
       <c r="D844" s="1"/>
@@ -12589,7 +12616,7 @@
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
     </row>
-    <row r="845" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
@@ -12603,7 +12630,7 @@
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
     </row>
-    <row r="846" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
       <c r="D846" s="1"/>
@@ -12617,7 +12644,7 @@
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
     </row>
-    <row r="847" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
@@ -12631,7 +12658,7 @@
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
     </row>
-    <row r="848" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
       <c r="D848" s="1"/>
@@ -12645,7 +12672,7 @@
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
     </row>
-    <row r="849" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
       <c r="D849" s="1"/>
@@ -12659,7 +12686,7 @@
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
     </row>
-    <row r="850" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
       <c r="D850" s="1"/>
@@ -12673,7 +12700,7 @@
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
     </row>
-    <row r="851" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
@@ -12687,7 +12714,7 @@
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
     </row>
-    <row r="852" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
       <c r="D852" s="1"/>
@@ -12701,7 +12728,7 @@
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
     </row>
-    <row r="853" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
       <c r="D853" s="1"/>
@@ -12715,7 +12742,7 @@
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
     </row>
-    <row r="854" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
       <c r="D854" s="1"/>
@@ -12729,7 +12756,7 @@
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
     </row>
-    <row r="855" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
       <c r="D855" s="1"/>
@@ -12743,7 +12770,7 @@
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
     </row>
-    <row r="856" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
       <c r="D856" s="1"/>
@@ -12757,7 +12784,7 @@
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
     </row>
-    <row r="857" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
       <c r="D857" s="1"/>
@@ -12771,7 +12798,7 @@
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
     </row>
-    <row r="858" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
       <c r="D858" s="1"/>
@@ -12785,7 +12812,7 @@
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
     </row>
-    <row r="859" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
       <c r="D859" s="1"/>
@@ -12799,7 +12826,7 @@
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
     </row>
-    <row r="860" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
       <c r="D860" s="1"/>
@@ -12813,7 +12840,7 @@
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
     </row>
-    <row r="861" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
       <c r="D861" s="1"/>
@@ -12827,7 +12854,7 @@
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
     </row>
-    <row r="862" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
       <c r="D862" s="1"/>
@@ -12841,7 +12868,7 @@
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
     </row>
-    <row r="863" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
       <c r="D863" s="1"/>
@@ -12855,7 +12882,7 @@
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
     </row>
-    <row r="864" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
       <c r="D864" s="1"/>
@@ -12869,7 +12896,7 @@
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
     </row>
-    <row r="865" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
       <c r="D865" s="1"/>
@@ -12883,7 +12910,7 @@
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
     </row>
-    <row r="866" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
       <c r="D866" s="1"/>
@@ -12897,7 +12924,7 @@
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
     </row>
-    <row r="867" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
       <c r="D867" s="1"/>
@@ -12911,7 +12938,7 @@
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
     </row>
-    <row r="868" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
       <c r="D868" s="1"/>
@@ -12925,7 +12952,7 @@
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
     </row>
-    <row r="869" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
       <c r="D869" s="1"/>
@@ -12939,7 +12966,7 @@
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
     </row>
-    <row r="870" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
       <c r="D870" s="1"/>
@@ -12953,7 +12980,7 @@
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
     </row>
-    <row r="871" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
       <c r="D871" s="1"/>
@@ -12967,7 +12994,7 @@
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
     </row>
-    <row r="872" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
       <c r="D872" s="1"/>
@@ -12981,7 +13008,7 @@
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
     </row>
-    <row r="873" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
       <c r="D873" s="1"/>
@@ -12995,7 +13022,7 @@
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
     </row>
-    <row r="874" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
       <c r="D874" s="1"/>
@@ -13009,7 +13036,7 @@
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
     </row>
-    <row r="875" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
       <c r="D875" s="1"/>
@@ -13023,7 +13050,7 @@
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
     </row>
-    <row r="876" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
       <c r="D876" s="1"/>
@@ -13037,7 +13064,7 @@
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
     </row>
-    <row r="877" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
       <c r="D877" s="1"/>
@@ -13051,7 +13078,7 @@
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
     </row>
-    <row r="878" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
       <c r="D878" s="1"/>
@@ -13065,7 +13092,7 @@
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
     </row>
-    <row r="879" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
       <c r="D879" s="1"/>
@@ -13079,7 +13106,7 @@
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
     </row>
-    <row r="880" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
       <c r="D880" s="1"/>
@@ -13093,7 +13120,7 @@
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
     </row>
-    <row r="881" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
       <c r="D881" s="1"/>
@@ -13107,7 +13134,7 @@
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
     </row>
-    <row r="882" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
       <c r="D882" s="1"/>
@@ -13121,7 +13148,7 @@
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
     </row>
-    <row r="883" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
       <c r="D883" s="1"/>
@@ -13135,7 +13162,7 @@
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
     </row>
-    <row r="884" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
       <c r="D884" s="1"/>
@@ -13149,7 +13176,7 @@
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
     </row>
-    <row r="885" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
       <c r="D885" s="1"/>
@@ -13163,7 +13190,7 @@
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
     </row>
-    <row r="886" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
       <c r="D886" s="1"/>
@@ -13177,7 +13204,7 @@
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
     </row>
-    <row r="887" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
       <c r="D887" s="1"/>
@@ -13191,7 +13218,7 @@
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
     </row>
-    <row r="888" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
       <c r="D888" s="1"/>
@@ -13205,7 +13232,7 @@
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
     </row>
-    <row r="889" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
       <c r="D889" s="1"/>
@@ -13219,7 +13246,7 @@
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
     </row>
-    <row r="890" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
       <c r="D890" s="1"/>
@@ -13233,7 +13260,7 @@
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
     </row>
-    <row r="891" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
       <c r="D891" s="1"/>
@@ -13247,7 +13274,7 @@
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
     </row>
-    <row r="892" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
       <c r="D892" s="1"/>
@@ -13261,7 +13288,7 @@
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
     </row>
-    <row r="893" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
       <c r="D893" s="1"/>
@@ -13275,7 +13302,7 @@
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
     </row>
-    <row r="894" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
       <c r="D894" s="1"/>
@@ -13289,7 +13316,7 @@
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
     </row>
-    <row r="895" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
       <c r="D895" s="1"/>
@@ -13303,7 +13330,7 @@
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
     </row>
-    <row r="896" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
       <c r="D896" s="1"/>
@@ -13317,7 +13344,7 @@
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
     </row>
-    <row r="897" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
       <c r="D897" s="1"/>
@@ -13331,7 +13358,7 @@
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
     </row>
-    <row r="898" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
       <c r="D898" s="1"/>
@@ -13345,7 +13372,7 @@
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
     </row>
-    <row r="899" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
       <c r="D899" s="1"/>
@@ -13359,7 +13386,7 @@
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
     </row>
-    <row r="900" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
       <c r="D900" s="1"/>
@@ -13373,7 +13400,7 @@
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
     </row>
-    <row r="901" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
       <c r="D901" s="1"/>
@@ -13387,7 +13414,7 @@
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
     </row>
-    <row r="902" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
       <c r="D902" s="1"/>
@@ -13401,7 +13428,7 @@
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
     </row>
-    <row r="903" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
       <c r="D903" s="1"/>
@@ -13415,7 +13442,7 @@
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
     </row>
-    <row r="904" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
       <c r="D904" s="1"/>
@@ -13429,7 +13456,7 @@
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
     </row>
-    <row r="905" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
       <c r="D905" s="1"/>
@@ -13443,7 +13470,7 @@
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
     </row>
-    <row r="906" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
       <c r="D906" s="1"/>
@@ -13457,7 +13484,7 @@
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
     </row>
-    <row r="907" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
       <c r="D907" s="1"/>
@@ -13471,7 +13498,7 @@
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
     </row>
-    <row r="908" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
       <c r="D908" s="1"/>
@@ -13485,7 +13512,7 @@
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
     </row>
-    <row r="909" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
       <c r="D909" s="1"/>
@@ -13499,7 +13526,7 @@
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
     </row>
-    <row r="910" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
       <c r="D910" s="1"/>
@@ -13513,7 +13540,7 @@
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
     </row>
-    <row r="911" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
       <c r="D911" s="1"/>
@@ -13527,7 +13554,7 @@
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
     </row>
-    <row r="912" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
       <c r="D912" s="1"/>
@@ -13541,7 +13568,7 @@
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
     </row>
-    <row r="913" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
       <c r="D913" s="1"/>
@@ -13555,7 +13582,7 @@
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
     </row>
-    <row r="914" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
       <c r="D914" s="1"/>
@@ -13569,7 +13596,7 @@
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
     </row>
-    <row r="915" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
       <c r="D915" s="1"/>
@@ -13583,7 +13610,7 @@
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
     </row>
-    <row r="916" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
       <c r="D916" s="1"/>
@@ -13597,7 +13624,7 @@
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
     </row>
-    <row r="917" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
       <c r="D917" s="1"/>
@@ -13611,7 +13638,7 @@
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
     </row>
-    <row r="918" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
       <c r="D918" s="1"/>
@@ -13625,7 +13652,7 @@
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
     </row>
-    <row r="919" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
       <c r="D919" s="1"/>
@@ -13639,7 +13666,7 @@
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
     </row>
-    <row r="920" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
       <c r="D920" s="1"/>
@@ -13653,7 +13680,7 @@
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
     </row>
-    <row r="921" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
       <c r="D921" s="1"/>
@@ -13667,7 +13694,7 @@
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
     </row>
-    <row r="922" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
       <c r="D922" s="1"/>
@@ -13681,7 +13708,7 @@
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
     </row>
-    <row r="923" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
       <c r="D923" s="1"/>
@@ -13695,7 +13722,7 @@
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
     </row>
-    <row r="924" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
       <c r="D924" s="1"/>
@@ -13709,7 +13736,7 @@
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
     </row>
-    <row r="925" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
       <c r="D925" s="1"/>
@@ -13723,7 +13750,7 @@
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
     </row>
-    <row r="926" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
       <c r="D926" s="1"/>
@@ -13737,7 +13764,7 @@
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
     </row>
-    <row r="927" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
       <c r="D927" s="1"/>
@@ -13751,7 +13778,7 @@
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
     </row>
-    <row r="928" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
       <c r="D928" s="1"/>
@@ -13765,7 +13792,7 @@
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
     </row>
-    <row r="929" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
       <c r="D929" s="1"/>
@@ -13779,7 +13806,7 @@
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
     </row>
-    <row r="930" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
@@ -13793,7 +13820,7 @@
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
     </row>
-    <row r="931" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
       <c r="D931" s="1"/>
@@ -13807,7 +13834,7 @@
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
     </row>
-    <row r="932" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
       <c r="D932" s="1"/>
@@ -13821,7 +13848,7 @@
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
     </row>
-    <row r="933" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
       <c r="D933" s="1"/>
@@ -13835,7 +13862,7 @@
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
     </row>
-    <row r="934" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
       <c r="D934" s="1"/>
@@ -13849,7 +13876,7 @@
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
     </row>
-    <row r="935" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
       <c r="D935" s="1"/>
@@ -13863,7 +13890,7 @@
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
     </row>
-    <row r="936" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
       <c r="D936" s="1"/>
@@ -13877,7 +13904,7 @@
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
     </row>
-    <row r="937" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
       <c r="D937" s="1"/>
@@ -13891,7 +13918,7 @@
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
     </row>
-    <row r="938" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
       <c r="D938" s="1"/>
@@ -13905,7 +13932,7 @@
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
     </row>
-    <row r="939" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
       <c r="D939" s="1"/>
@@ -13919,7 +13946,7 @@
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
     </row>
-    <row r="940" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
       <c r="D940" s="1"/>
@@ -13933,7 +13960,7 @@
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
     </row>
-    <row r="941" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
       <c r="D941" s="1"/>

--- a/Python/data/case-study/SC-network/locations.xlsx
+++ b/Python/data/case-study/SC-network/locations.xlsx
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Index</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Demand</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:M941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,7 +653,9 @@
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -703,7 +708,9 @@
         <v>34.193145299999998</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>50000</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -730,7 +737,9 @@
         <v>33.614168800000002</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>50000</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -757,7 +766,9 @@
         <v>32.865635400000002</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>50000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -784,7 +795,9 @@
         <v>33.230486200000001</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>50000</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -811,7 +824,9 @@
         <v>32.804634</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>50000</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -838,7 +853,9 @@
         <v>33.904211199999999</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>50000</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -865,7 +882,9 @@
         <v>34.763020599999997</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>50000</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -892,7 +911,9 @@
         <v>34.403608200000001</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>50000</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>

--- a/Python/data/case-study/SC-network/locations.xlsx
+++ b/Python/data/case-study/SC-network/locations.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC7317-7C28-C548-8D42-EB434D50EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1540" windowWidth="20720" windowHeight="13280"/>
+    <workbookView xWindow="16840" yWindow="4840" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1wjxvCNDScdaJDwiUwdUu2NgzKvCvFyhKzUUaZz1Drk="/>
     </ext>
@@ -41,58 +42,225 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABFZBtpuI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={F4DD63AF-DC67-44D9-A1DA-A3BD8108842B}    (2024-01-30 19:45:40)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Assumed it is a weigh station off of I-26E near Harleyville
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Reply:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Selected a nearby location for address and coordinates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAABFZBtpuE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tc={AD35BE4D-2964-4C17-8A24-63FC5259AAC3}    (2024-01-30 19:45:40)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    Selected a highway rest area labeled town of Hendersonville on I-95</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABFZBtpuI
-tc={F4DD63AF-DC67-44D9-A1DA-A3BD8108842B}    (2024-01-30 19:45:40)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Assumed it is a weigh station off of I-26E near Harleyville
-Reply:
-    Selected a nearby location for address and coordinates</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAABFZBtpuE
-tc={AD35BE4D-2964-4C17-8A24-63FC5259AAC3}    (2024-01-30 19:45:40)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Selected a highway rest area labeled town of Hendersonville on I-95</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -105,13 +273,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Same as largest shelter in each state</t>
@@ -281,8 +450,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +470,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,6 +570,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -645,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>49</v>
@@ -708,9 +886,7 @@
         <v>34.193145299999998</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -737,9 +913,7 @@
         <v>33.614168800000002</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -766,9 +940,7 @@
         <v>32.865635400000002</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -795,9 +967,7 @@
         <v>33.230486200000001</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -824,9 +994,7 @@
         <v>32.804634</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -853,9 +1021,7 @@
         <v>33.904211199999999</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -882,9 +1048,7 @@
         <v>34.763020599999997</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -911,9 +1075,7 @@
         <v>34.403608200000001</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>50000</v>
-      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>

--- a/Python/data/case-study/SC-network/locations.xlsx
+++ b/Python/data/case-study/SC-network/locations.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC7317-7C28-C548-8D42-EB434D50EA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="4840" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="7360" windowWidth="44580" windowHeight="19220"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1wjxvCNDScdaJDwiUwdUu2NgzKvCvFyhKzUUaZz1Drk="/>
     </ext>
@@ -42,12 +41,36 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Microsoft Office User</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated by the # of pallets multiplied by the number of PoD kits per pallet -- See Emma's kit calculation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -160,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -253,14 +276,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D8" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -273,14 +295,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B11" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Same as largest shelter in each state</t>
@@ -450,8 +471,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +497,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -787,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -886,7 +918,10 @@
         <v>34.193145299999998</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="12">
+        <f>4608*50</f>
+        <v>230400</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -913,7 +948,10 @@
         <v>33.614168800000002</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <f>9600*50</f>
+        <v>480000</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -940,7 +978,10 @@
         <v>32.865635400000002</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <f>2400*50</f>
+        <v>120000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -967,7 +1008,10 @@
         <v>33.230486200000001</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <f>1920*50</f>
+        <v>96000</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -994,7 +1038,10 @@
         <v>32.804634</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <f>3000*50</f>
+        <v>150000</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1021,7 +1068,10 @@
         <v>33.904211199999999</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <f>2400*50</f>
+        <v>120000</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1048,7 +1098,10 @@
         <v>34.763020599999997</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <f>14208*50</f>
+        <v>710400</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1075,7 +1128,10 @@
         <v>34.403608200000001</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <f>1000*50</f>
+        <v>50000</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
